--- a/server/src/infra/ReadingCSV/Exams/PlanilhaExamesRK.xlsx
+++ b/server/src/infra/ReadingCSV/Exams/PlanilhaExamesRK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WeDescWorks\DrHatoAndVK\server\src\infra\ReadingCSV\Exams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A460A6B0-1A10-48A5-969F-EF300F040322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB17C87-1BC5-42B2-B0CF-F64DDFA1CDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1500" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{83BE0822-3E72-449B-930A-8C81BB24AA16}"/>
+    <workbookView xWindow="-120" yWindow="1320" windowWidth="28110" windowHeight="11385" activeTab="1" xr2:uid="{83BE0822-3E72-449B-930A-8C81BB24AA16}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="410">
   <si>
     <t>Grupo Exame</t>
   </si>
@@ -1258,6 +1258,15 @@
   </si>
   <si>
     <t>valueWithRate</t>
+  </si>
+  <si>
+    <t>isHighligth</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -1824,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE071E33-934A-4D61-9F0C-8CA25CB3245B}">
-  <dimension ref="A1:H353"/>
+  <dimension ref="A1:I353"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B348" sqref="B348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,9 +1849,10 @@
     <col min="6" max="6" width="27.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>399</v>
       </c>
@@ -1867,8 +1877,11 @@
       <c r="H1" s="8" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>249</v>
       </c>
@@ -1893,8 +1906,11 @@
       <c r="H2" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>151</v>
       </c>
@@ -1919,8 +1935,11 @@
       <c r="H3" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>145</v>
       </c>
@@ -1945,8 +1964,11 @@
       <c r="H4" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>147</v>
       </c>
@@ -1971,8 +1993,11 @@
       <c r="H5" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>877</v>
       </c>
@@ -1997,8 +2022,11 @@
       <c r="H6" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>150</v>
       </c>
@@ -2023,8 +2051,11 @@
       <c r="H7" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>845</v>
       </c>
@@ -2049,8 +2080,11 @@
       <c r="H8" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>885</v>
       </c>
@@ -2075,8 +2109,11 @@
       <c r="H9" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>711</v>
       </c>
@@ -2101,8 +2138,11 @@
       <c r="H10" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>271</v>
       </c>
@@ -2127,8 +2167,11 @@
       <c r="H11" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>274</v>
       </c>
@@ -2153,8 +2196,11 @@
       <c r="H12" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>273</v>
       </c>
@@ -2179,8 +2225,11 @@
       <c r="H13" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>121</v>
       </c>
@@ -2205,8 +2254,11 @@
       <c r="H14" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>28</v>
       </c>
@@ -2231,8 +2283,11 @@
       <c r="H15" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>645</v>
       </c>
@@ -2257,8 +2312,11 @@
       <c r="H16" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>29</v>
       </c>
@@ -2283,8 +2341,11 @@
       <c r="H17" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>593</v>
       </c>
@@ -2309,8 +2370,11 @@
       <c r="H18" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>299</v>
       </c>
@@ -2335,8 +2399,11 @@
       <c r="H19" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>32</v>
       </c>
@@ -2361,8 +2428,11 @@
       <c r="H20" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>160</v>
       </c>
@@ -2387,8 +2457,11 @@
       <c r="H21" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>31</v>
       </c>
@@ -2413,8 +2486,11 @@
       <c r="H22" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>612</v>
       </c>
@@ -2439,8 +2515,11 @@
       <c r="H23" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>33</v>
       </c>
@@ -2465,8 +2544,11 @@
       <c r="H24" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>602</v>
       </c>
@@ -2491,8 +2573,11 @@
       <c r="H25" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>390</v>
       </c>
@@ -2517,8 +2602,11 @@
       <c r="H26" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>34</v>
       </c>
@@ -2543,8 +2631,11 @@
       <c r="H27" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>161</v>
       </c>
@@ -2569,8 +2660,11 @@
       <c r="H28" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>707</v>
       </c>
@@ -2595,8 +2689,11 @@
       <c r="H29" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>72</v>
       </c>
@@ -2621,8 +2718,11 @@
       <c r="H30" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>814</v>
       </c>
@@ -2647,8 +2747,11 @@
       <c r="H31" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>109</v>
       </c>
@@ -2673,8 +2776,11 @@
       <c r="H32" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>116</v>
       </c>
@@ -2699,8 +2805,11 @@
       <c r="H33" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>36</v>
       </c>
@@ -2725,8 +2834,11 @@
       <c r="H34" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>698</v>
       </c>
@@ -2751,8 +2863,11 @@
       <c r="H35" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>300</v>
       </c>
@@ -2777,8 +2892,11 @@
       <c r="H36" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>108</v>
       </c>
@@ -2803,8 +2921,11 @@
       <c r="H37" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>38</v>
       </c>
@@ -2829,8 +2950,11 @@
       <c r="H38" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>39</v>
       </c>
@@ -2855,8 +2979,11 @@
       <c r="H39" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>714</v>
       </c>
@@ -2881,8 +3008,11 @@
       <c r="H40" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>715</v>
       </c>
@@ -2907,8 +3037,11 @@
       <c r="H41" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>716</v>
       </c>
@@ -2933,8 +3066,11 @@
       <c r="H42" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>717</v>
       </c>
@@ -2959,8 +3095,11 @@
       <c r="H43" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>718</v>
       </c>
@@ -2985,8 +3124,11 @@
       <c r="H44" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>590</v>
       </c>
@@ -3011,8 +3153,11 @@
       <c r="H45" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>445</v>
       </c>
@@ -3037,8 +3182,11 @@
       <c r="H46" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>40</v>
       </c>
@@ -3063,8 +3211,11 @@
       <c r="H47" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>131</v>
       </c>
@@ -3089,8 +3240,11 @@
       <c r="H48" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>41</v>
       </c>
@@ -3115,8 +3269,11 @@
       <c r="H49" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>655</v>
       </c>
@@ -3141,8 +3298,11 @@
       <c r="H50" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>162</v>
       </c>
@@ -3167,8 +3327,11 @@
       <c r="H51" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>596</v>
       </c>
@@ -3193,8 +3356,11 @@
       <c r="H52" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>597</v>
       </c>
@@ -3219,8 +3385,11 @@
       <c r="H53" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>606</v>
       </c>
@@ -3245,8 +3414,11 @@
       <c r="H54" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>663</v>
       </c>
@@ -3271,8 +3443,11 @@
       <c r="H55" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>729</v>
       </c>
@@ -3297,8 +3472,11 @@
       <c r="H56" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>730</v>
       </c>
@@ -3323,8 +3501,11 @@
       <c r="H57" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>546</v>
       </c>
@@ -3349,8 +3530,11 @@
       <c r="H58" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>42</v>
       </c>
@@ -3375,8 +3559,11 @@
       <c r="H59" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>758</v>
       </c>
@@ -3401,8 +3588,11 @@
       <c r="H60" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>43</v>
       </c>
@@ -3427,8 +3617,11 @@
       <c r="H61" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>391</v>
       </c>
@@ -3453,8 +3646,11 @@
       <c r="H62" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>636</v>
       </c>
@@ -3479,8 +3675,11 @@
       <c r="H63" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>392</v>
       </c>
@@ -3505,8 +3704,11 @@
       <c r="H64" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>700</v>
       </c>
@@ -3531,8 +3733,11 @@
       <c r="H65" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>737</v>
       </c>
@@ -3557,8 +3762,11 @@
       <c r="H66" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>303</v>
       </c>
@@ -3583,8 +3791,11 @@
       <c r="H67" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>448</v>
       </c>
@@ -3609,8 +3820,11 @@
       <c r="H68" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>45</v>
       </c>
@@ -3635,8 +3849,11 @@
       <c r="H69" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>46</v>
       </c>
@@ -3661,8 +3878,11 @@
       <c r="H70" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>106</v>
       </c>
@@ -3687,8 +3907,11 @@
       <c r="H71" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>535</v>
       </c>
@@ -3713,8 +3936,11 @@
       <c r="H72" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>806</v>
       </c>
@@ -3739,8 +3965,11 @@
       <c r="H73" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>24</v>
       </c>
@@ -3765,8 +3994,11 @@
       <c r="H74" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>19</v>
       </c>
@@ -3791,8 +4023,11 @@
       <c r="H75" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>20</v>
       </c>
@@ -3817,8 +4052,11 @@
       <c r="H76" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>152</v>
       </c>
@@ -3843,8 +4081,11 @@
       <c r="H77" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>21</v>
       </c>
@@ -3869,8 +4110,11 @@
       <c r="H78" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>533</v>
       </c>
@@ -3895,8 +4139,11 @@
       <c r="H79" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>129</v>
       </c>
@@ -3921,8 +4168,11 @@
       <c r="H80" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>242</v>
       </c>
@@ -3947,8 +4197,11 @@
       <c r="H81" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>250</v>
       </c>
@@ -3973,8 +4226,11 @@
       <c r="H82" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>22</v>
       </c>
@@ -3999,8 +4255,11 @@
       <c r="H83" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>25</v>
       </c>
@@ -4025,8 +4284,11 @@
       <c r="H84" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>808</v>
       </c>
@@ -4049,8 +4311,11 @@
         <v>0</v>
       </c>
       <c r="H85" s="8"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>855</v>
       </c>
@@ -4075,8 +4340,11 @@
       <c r="H86" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>97</v>
       </c>
@@ -4101,8 +4369,11 @@
       <c r="H87" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>836</v>
       </c>
@@ -4127,8 +4398,11 @@
       <c r="H88" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>538</v>
       </c>
@@ -4153,8 +4427,11 @@
       <c r="H89" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>772</v>
       </c>
@@ -4179,8 +4456,11 @@
       <c r="H90" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>229</v>
       </c>
@@ -4205,8 +4485,11 @@
       <c r="H91" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>228</v>
       </c>
@@ -4231,8 +4514,11 @@
       <c r="H92" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>54</v>
       </c>
@@ -4257,8 +4543,11 @@
       <c r="H93" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>769</v>
       </c>
@@ -4283,8 +4572,11 @@
       <c r="H94" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>774</v>
       </c>
@@ -4309,8 +4601,11 @@
       <c r="H95" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>765</v>
       </c>
@@ -4335,8 +4630,11 @@
       <c r="H96" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>76</v>
       </c>
@@ -4361,8 +4659,11 @@
       <c r="H97" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>536</v>
       </c>
@@ -4387,8 +4688,11 @@
       <c r="H98" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>665</v>
       </c>
@@ -4413,8 +4717,11 @@
       <c r="H99" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>667</v>
       </c>
@@ -4439,8 +4746,11 @@
       <c r="H100" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>886</v>
       </c>
@@ -4465,8 +4775,11 @@
       <c r="H101" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>670</v>
       </c>
@@ -4491,8 +4804,11 @@
       <c r="H102" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>742</v>
       </c>
@@ -4517,8 +4833,11 @@
       <c r="H103" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>746</v>
       </c>
@@ -4543,8 +4862,11 @@
       <c r="H104" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>747</v>
       </c>
@@ -4569,8 +4891,11 @@
       <c r="H105" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>745</v>
       </c>
@@ -4595,8 +4920,11 @@
       <c r="H106" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>744</v>
       </c>
@@ -4621,8 +4949,11 @@
       <c r="H107" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>699</v>
       </c>
@@ -4647,8 +4978,11 @@
       <c r="H108" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>748</v>
       </c>
@@ -4673,8 +5007,11 @@
       <c r="H109" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>749</v>
       </c>
@@ -4699,8 +5036,11 @@
       <c r="H110" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>488</v>
       </c>
@@ -4725,8 +5065,11 @@
       <c r="H111" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>671</v>
       </c>
@@ -4751,8 +5094,11 @@
       <c r="H112" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>163</v>
       </c>
@@ -4777,8 +5123,11 @@
       <c r="H113" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>64</v>
       </c>
@@ -4803,8 +5152,11 @@
       <c r="H114" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>633</v>
       </c>
@@ -4829,8 +5181,11 @@
       <c r="H115" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>641</v>
       </c>
@@ -4855,8 +5210,11 @@
       <c r="H116" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>656</v>
       </c>
@@ -4881,8 +5239,11 @@
       <c r="H117" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>252</v>
       </c>
@@ -4907,8 +5268,11 @@
       <c r="H118" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>238</v>
       </c>
@@ -4933,8 +5297,11 @@
       <c r="H119" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>657</v>
       </c>
@@ -4959,8 +5326,11 @@
       <c r="H120" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>65</v>
       </c>
@@ -4985,8 +5355,11 @@
       <c r="H121" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>66</v>
       </c>
@@ -5011,8 +5384,11 @@
       <c r="H122" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>67</v>
       </c>
@@ -5037,8 +5413,11 @@
       <c r="H123" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>253</v>
       </c>
@@ -5063,8 +5442,11 @@
       <c r="H124" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>62</v>
       </c>
@@ -5089,8 +5471,11 @@
       <c r="H125" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>69</v>
       </c>
@@ -5115,8 +5500,11 @@
       <c r="H126" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>70</v>
       </c>
@@ -5141,8 +5529,11 @@
       <c r="H127" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>541</v>
       </c>
@@ -5167,8 +5558,11 @@
       <c r="H128" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>653</v>
       </c>
@@ -5193,8 +5587,11 @@
       <c r="H129" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>630</v>
       </c>
@@ -5219,8 +5616,11 @@
       <c r="H130" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>68</v>
       </c>
@@ -5245,8 +5645,11 @@
       <c r="H131" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>247</v>
       </c>
@@ -5271,8 +5674,11 @@
       <c r="H132" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>755</v>
       </c>
@@ -5297,8 +5703,11 @@
       <c r="H133" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>123</v>
       </c>
@@ -5323,8 +5732,11 @@
       <c r="H134" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>265</v>
       </c>
@@ -5349,8 +5761,11 @@
       <c r="H135" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>721</v>
       </c>
@@ -5375,8 +5790,11 @@
       <c r="H136" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>739</v>
       </c>
@@ -5401,8 +5819,11 @@
       <c r="H137" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>495</v>
       </c>
@@ -5427,8 +5848,11 @@
       <c r="H138" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>441</v>
       </c>
@@ -5453,8 +5877,11 @@
       <c r="H139" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>258</v>
       </c>
@@ -5479,8 +5906,11 @@
       <c r="H140" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>647</v>
       </c>
@@ -5505,8 +5935,11 @@
       <c r="H141" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>577</v>
       </c>
@@ -5531,8 +5964,11 @@
       <c r="H142" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>659</v>
       </c>
@@ -5557,8 +5993,11 @@
       <c r="H143" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>569</v>
       </c>
@@ -5583,8 +6022,11 @@
       <c r="H144" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>49</v>
       </c>
@@ -5609,8 +6051,11 @@
       <c r="H145" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>260</v>
       </c>
@@ -5635,8 +6080,11 @@
       <c r="H146" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>136</v>
       </c>
@@ -5661,8 +6109,11 @@
       <c r="H147" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>322</v>
       </c>
@@ -5687,8 +6138,11 @@
       <c r="H148" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>51</v>
       </c>
@@ -5713,8 +6167,11 @@
       <c r="H149" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>614</v>
       </c>
@@ -5739,8 +6196,11 @@
       <c r="H150" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>648</v>
       </c>
@@ -5765,8 +6225,11 @@
       <c r="H151" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>204</v>
       </c>
@@ -5791,8 +6254,11 @@
       <c r="H152" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>458</v>
       </c>
@@ -5817,8 +6283,11 @@
       <c r="H153" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>658</v>
       </c>
@@ -5843,8 +6312,11 @@
       <c r="H154" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>2</v>
       </c>
@@ -5869,8 +6341,11 @@
       <c r="H155" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>639</v>
       </c>
@@ -5895,8 +6370,11 @@
       <c r="H156" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>208</v>
       </c>
@@ -5921,8 +6399,11 @@
       <c r="H157" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>210</v>
       </c>
@@ -5947,8 +6428,11 @@
       <c r="H158" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I158" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>740</v>
       </c>
@@ -5973,8 +6457,11 @@
       <c r="H159" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>634</v>
       </c>
@@ -5999,8 +6486,11 @@
       <c r="H160" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I160" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>3</v>
       </c>
@@ -6025,8 +6515,11 @@
       <c r="H161" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I161" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>215</v>
       </c>
@@ -6051,8 +6544,11 @@
       <c r="H162" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>888</v>
       </c>
@@ -6077,8 +6573,11 @@
       <c r="H163" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>609</v>
       </c>
@@ -6103,8 +6602,11 @@
       <c r="H164" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>570</v>
       </c>
@@ -6129,8 +6631,11 @@
       <c r="H165" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>571</v>
       </c>
@@ -6155,8 +6660,11 @@
       <c r="H166" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>572</v>
       </c>
@@ -6181,8 +6689,11 @@
       <c r="H167" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>573</v>
       </c>
@@ -6207,8 +6718,11 @@
       <c r="H168" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>832</v>
       </c>
@@ -6233,8 +6747,11 @@
       <c r="H169" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>217</v>
       </c>
@@ -6259,8 +6776,11 @@
       <c r="H170" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>7</v>
       </c>
@@ -6285,8 +6805,11 @@
       <c r="H171" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>762</v>
       </c>
@@ -6311,8 +6834,11 @@
       <c r="H172" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>677</v>
       </c>
@@ -6337,8 +6863,11 @@
       <c r="H173" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>676</v>
       </c>
@@ -6363,8 +6892,11 @@
       <c r="H174" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I174" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>851</v>
       </c>
@@ -6389,8 +6921,11 @@
       <c r="H175" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>852</v>
       </c>
@@ -6415,8 +6950,11 @@
       <c r="H176" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I176" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>459</v>
       </c>
@@ -6441,8 +6979,11 @@
       <c r="H177" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I177" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>890</v>
       </c>
@@ -6467,8 +7008,11 @@
       <c r="H178" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>137</v>
       </c>
@@ -6493,8 +7037,11 @@
       <c r="H179" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I179" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>883</v>
       </c>
@@ -6519,8 +7066,11 @@
       <c r="H180" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I180" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>213</v>
       </c>
@@ -6545,8 +7095,11 @@
       <c r="H181" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I181" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>130</v>
       </c>
@@ -6571,8 +7124,11 @@
       <c r="H182" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I182" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>853</v>
       </c>
@@ -6597,8 +7153,11 @@
       <c r="H183" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>863</v>
       </c>
@@ -6623,8 +7182,11 @@
       <c r="H184" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I184" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>608</v>
       </c>
@@ -6649,8 +7211,11 @@
       <c r="H185" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I185" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>652</v>
       </c>
@@ -6675,8 +7240,11 @@
       <c r="H186" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I186" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>220</v>
       </c>
@@ -6701,8 +7269,11 @@
       <c r="H187" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I187" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>813</v>
       </c>
@@ -6727,8 +7298,11 @@
       <c r="H188" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I188" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>812</v>
       </c>
@@ -6753,8 +7327,11 @@
       <c r="H189" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I189" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>338</v>
       </c>
@@ -6779,8 +7356,11 @@
       <c r="H190" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I190" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>58</v>
       </c>
@@ -6805,8 +7385,11 @@
       <c r="H191" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>60</v>
       </c>
@@ -6831,8 +7414,11 @@
       <c r="H192" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I192" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>154</v>
       </c>
@@ -6857,8 +7443,11 @@
       <c r="H193" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I193" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>263</v>
       </c>
@@ -6883,8 +7472,11 @@
       <c r="H194" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I194" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>732</v>
       </c>
@@ -6909,8 +7501,11 @@
       <c r="H195" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I195" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>682</v>
       </c>
@@ -6935,8 +7530,11 @@
       <c r="H196" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I196" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>519</v>
       </c>
@@ -6961,8 +7559,11 @@
       <c r="H197" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I197" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>595</v>
       </c>
@@ -6987,8 +7588,11 @@
       <c r="H198" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I198" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>11</v>
       </c>
@@ -7013,8 +7617,11 @@
       <c r="H199" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I199" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>539</v>
       </c>
@@ -7039,8 +7646,11 @@
       <c r="H200" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I200" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>540</v>
       </c>
@@ -7065,8 +7675,11 @@
       <c r="H201" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I201" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>10</v>
       </c>
@@ -7091,8 +7704,11 @@
       <c r="H202" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I202" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>414</v>
       </c>
@@ -7117,8 +7733,11 @@
       <c r="H203" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I203" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
         <v>13</v>
       </c>
@@ -7143,8 +7762,11 @@
       <c r="H204" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I204" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
         <v>617</v>
       </c>
@@ -7169,8 +7791,11 @@
       <c r="H205" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I205" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>74</v>
       </c>
@@ -7195,8 +7820,11 @@
       <c r="H206" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I206" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
         <v>99</v>
       </c>
@@ -7221,8 +7849,11 @@
       <c r="H207" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I207" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
         <v>587</v>
       </c>
@@ -7247,8 +7878,11 @@
       <c r="H208" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I208" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
         <v>588</v>
       </c>
@@ -7273,8 +7907,11 @@
       <c r="H209" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I209" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
         <v>589</v>
       </c>
@@ -7299,8 +7936,11 @@
       <c r="H210" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I210" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>824</v>
       </c>
@@ -7325,8 +7965,11 @@
       <c r="H211" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I211" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>825</v>
       </c>
@@ -7351,8 +7994,11 @@
       <c r="H212" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I212" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>826</v>
       </c>
@@ -7377,8 +8023,11 @@
       <c r="H213" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
         <v>818</v>
       </c>
@@ -7403,8 +8052,11 @@
       <c r="H214" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I214" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
         <v>823</v>
       </c>
@@ -7429,8 +8081,11 @@
       <c r="H215" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I215" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="8">
         <v>833</v>
       </c>
@@ -7455,8 +8110,11 @@
       <c r="H216" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I216" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
         <v>662</v>
       </c>
@@ -7481,8 +8139,11 @@
       <c r="H217" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I217" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
         <v>864</v>
       </c>
@@ -7507,8 +8168,11 @@
       <c r="H218" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I218" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
         <v>556</v>
       </c>
@@ -7533,8 +8197,11 @@
       <c r="H219" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I219" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
         <v>865</v>
       </c>
@@ -7559,8 +8226,11 @@
       <c r="H220" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I220" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
         <v>731</v>
       </c>
@@ -7585,8 +8255,11 @@
       <c r="H221" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I221" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
         <v>866</v>
       </c>
@@ -7611,8 +8284,11 @@
       <c r="H222" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I222" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
         <v>547</v>
       </c>
@@ -7637,8 +8313,11 @@
       <c r="H223" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I223" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="8">
         <v>599</v>
       </c>
@@ -7663,8 +8342,11 @@
       <c r="H224" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I224" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
         <v>127</v>
       </c>
@@ -7689,8 +8371,11 @@
       <c r="H225" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I225" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
         <v>126</v>
       </c>
@@ -7715,8 +8400,11 @@
       <c r="H226" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I226" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
         <v>56</v>
       </c>
@@ -7741,8 +8429,11 @@
       <c r="H227" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I227" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
         <v>16</v>
       </c>
@@ -7767,8 +8458,11 @@
       <c r="H228" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I228" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
         <v>55</v>
       </c>
@@ -7793,8 +8487,11 @@
       <c r="H229" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I229" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
         <v>403</v>
       </c>
@@ -7817,8 +8514,11 @@
       <c r="H230" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I230" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
         <v>781</v>
       </c>
@@ -7843,8 +8543,11 @@
       <c r="H231" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I231" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
         <v>568</v>
       </c>
@@ -7869,8 +8572,11 @@
       <c r="H232" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I232" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
         <v>507</v>
       </c>
@@ -7895,8 +8601,11 @@
       <c r="H233" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I233" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
         <v>613</v>
       </c>
@@ -7921,8 +8630,11 @@
       <c r="H234" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I234" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
         <v>376</v>
       </c>
@@ -7947,8 +8659,11 @@
       <c r="H235" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I235" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
         <v>377</v>
       </c>
@@ -7973,8 +8688,11 @@
       <c r="H236" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I236" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="8">
         <v>345</v>
       </c>
@@ -7999,8 +8717,11 @@
       <c r="H237" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I237" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
         <v>348</v>
       </c>
@@ -8025,8 +8746,11 @@
       <c r="H238" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I238" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
         <v>354</v>
       </c>
@@ -8051,8 +8775,11 @@
       <c r="H239" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I239" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
         <v>355</v>
       </c>
@@ -8077,8 +8804,11 @@
       <c r="H240" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I240" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
         <v>379</v>
       </c>
@@ -8103,8 +8833,11 @@
       <c r="H241" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I241" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>380</v>
       </c>
@@ -8129,8 +8862,11 @@
       <c r="H242" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I242" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>381</v>
       </c>
@@ -8155,8 +8891,11 @@
       <c r="H243" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I243" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
         <v>343</v>
       </c>
@@ -8181,8 +8920,11 @@
       <c r="H244" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I244" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="8">
         <v>344</v>
       </c>
@@ -8207,8 +8949,11 @@
       <c r="H245" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I245" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
         <v>337</v>
       </c>
@@ -8233,8 +8978,11 @@
       <c r="H246" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I246" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
         <v>627</v>
       </c>
@@ -8259,8 +9007,11 @@
       <c r="H247" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I247" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
         <v>422</v>
       </c>
@@ -8285,8 +9036,11 @@
       <c r="H248" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I248" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
         <v>624</v>
       </c>
@@ -8311,8 +9065,11 @@
       <c r="H249" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I249" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="8">
         <v>625</v>
       </c>
@@ -8337,8 +9094,11 @@
       <c r="H250" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I250" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="8">
         <v>384</v>
       </c>
@@ -8363,8 +9123,11 @@
       <c r="H251" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I251" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
         <v>600</v>
       </c>
@@ -8389,8 +9152,11 @@
       <c r="H252" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I252" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
         <v>278</v>
       </c>
@@ -8415,8 +9181,11 @@
       <c r="H253" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I253" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="8">
         <v>297</v>
       </c>
@@ -8441,8 +9210,11 @@
       <c r="H254" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I254" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
         <v>282</v>
       </c>
@@ -8467,8 +9239,11 @@
       <c r="H255" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I255" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
         <v>362</v>
       </c>
@@ -8493,8 +9268,11 @@
       <c r="H256" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I256" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
         <v>281</v>
       </c>
@@ -8519,8 +9297,11 @@
       <c r="H257" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I257" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
         <v>286</v>
       </c>
@@ -8545,8 +9326,11 @@
       <c r="H258" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I258" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="8">
         <v>335</v>
       </c>
@@ -8571,8 +9355,11 @@
       <c r="H259" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I259" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10">
         <v>575</v>
       </c>
@@ -8597,8 +9384,11 @@
       <c r="H260" s="12" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I260" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10">
         <v>312</v>
       </c>
@@ -8623,8 +9413,11 @@
       <c r="H261" s="12" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I261" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10">
         <v>314</v>
       </c>
@@ -8647,8 +9440,11 @@
       <c r="H262" s="12" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I262" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10">
         <v>628</v>
       </c>
@@ -8671,8 +9467,11 @@
       <c r="H263" s="12" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I263" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="10">
         <v>311</v>
       </c>
@@ -8695,8 +9494,11 @@
       <c r="H264" s="12" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I264" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10">
         <v>315</v>
       </c>
@@ -8719,8 +9521,11 @@
       <c r="H265" s="12" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I265" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="10">
         <v>313</v>
       </c>
@@ -8743,8 +9548,11 @@
       <c r="H266" s="12" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I266" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
         <v>607</v>
       </c>
@@ -8769,8 +9577,11 @@
       <c r="H267" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I267" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
         <v>277</v>
       </c>
@@ -8795,8 +9606,11 @@
       <c r="H268" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I268" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
         <v>563</v>
       </c>
@@ -8821,8 +9635,11 @@
       <c r="H269" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I269" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
         <v>296</v>
       </c>
@@ -8847,8 +9664,11 @@
       <c r="H270" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I270" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
         <v>373</v>
       </c>
@@ -8873,8 +9693,11 @@
       <c r="H271" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I271" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="8">
         <v>290</v>
       </c>
@@ -8899,8 +9722,11 @@
       <c r="H272" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I272" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>561</v>
       </c>
@@ -8925,8 +9751,11 @@
       <c r="H273" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I273" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>358</v>
       </c>
@@ -8951,8 +9780,11 @@
       <c r="H274" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I274" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>424</v>
       </c>
@@ -8977,8 +9809,11 @@
       <c r="H275" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I275" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
         <v>603</v>
       </c>
@@ -9003,8 +9838,11 @@
       <c r="H276" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I276" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>276</v>
       </c>
@@ -9029,8 +9867,11 @@
       <c r="H277" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I277" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>566</v>
       </c>
@@ -9055,8 +9896,11 @@
       <c r="H278" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I278" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
         <v>621</v>
       </c>
@@ -9081,8 +9925,11 @@
       <c r="H279" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I279" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
         <v>320</v>
       </c>
@@ -9107,8 +9954,11 @@
       <c r="H280" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I280" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
         <v>374</v>
       </c>
@@ -9133,8 +9983,11 @@
       <c r="H281" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I281" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
         <v>319</v>
       </c>
@@ -9159,8 +10012,11 @@
       <c r="H282" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I282" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
         <v>375</v>
       </c>
@@ -9185,8 +10041,11 @@
       <c r="H283" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I283" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
         <v>389</v>
       </c>
@@ -9211,8 +10070,11 @@
       <c r="H284" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I284" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
         <v>386</v>
       </c>
@@ -9237,8 +10099,11 @@
       <c r="H285" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I285" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="8">
         <v>601</v>
       </c>
@@ -9263,8 +10128,11 @@
       <c r="H286" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I286" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
         <v>393</v>
       </c>
@@ -9289,8 +10157,11 @@
       <c r="H287" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I287" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
         <v>371</v>
       </c>
@@ -9315,8 +10186,11 @@
       <c r="H288" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I288" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
         <v>400</v>
       </c>
@@ -9341,8 +10215,11 @@
       <c r="H289" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I289" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
         <v>293</v>
       </c>
@@ -9367,8 +10244,11 @@
       <c r="H290" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I290" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="8">
         <v>364</v>
       </c>
@@ -9393,8 +10273,11 @@
       <c r="H291" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I291" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
         <v>412</v>
       </c>
@@ -9419,8 +10302,11 @@
       <c r="H292" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I292" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
         <v>413</v>
       </c>
@@ -9445,8 +10331,11 @@
       <c r="H293" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I293" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
         <v>753</v>
       </c>
@@ -9471,8 +10360,11 @@
       <c r="H294" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I294" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
         <v>754</v>
       </c>
@@ -9497,8 +10389,11 @@
       <c r="H295" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I295" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
         <v>387</v>
       </c>
@@ -9523,8 +10418,11 @@
       <c r="H296" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I296" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
         <v>295</v>
       </c>
@@ -9549,8 +10447,11 @@
       <c r="H297" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I297" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="8">
         <v>291</v>
       </c>
@@ -9575,8 +10476,11 @@
       <c r="H298" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I298" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
         <v>785</v>
       </c>
@@ -9601,8 +10505,11 @@
       <c r="H299" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I299" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
         <v>644</v>
       </c>
@@ -9627,8 +10534,11 @@
       <c r="H300" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I300" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
         <v>611</v>
       </c>
@@ -9653,8 +10563,11 @@
       <c r="H301" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I301" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
         <v>592</v>
       </c>
@@ -9679,8 +10592,11 @@
       <c r="H302" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I302" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
         <v>750</v>
       </c>
@@ -9705,8 +10621,11 @@
       <c r="H303" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I303" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
         <v>872</v>
       </c>
@@ -9731,8 +10650,11 @@
       <c r="H304" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I304" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
         <v>871</v>
       </c>
@@ -9757,8 +10679,11 @@
       <c r="H305" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I305" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
         <v>873</v>
       </c>
@@ -9783,8 +10708,11 @@
       <c r="H306" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I306" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="8">
         <v>858</v>
       </c>
@@ -9809,8 +10737,11 @@
       <c r="H307" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I307" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
         <v>869</v>
       </c>
@@ -9835,8 +10766,11 @@
       <c r="H308" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I308" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="8">
         <v>868</v>
       </c>
@@ -9861,8 +10795,11 @@
       <c r="H309" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I309" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
         <v>870</v>
       </c>
@@ -9887,8 +10824,11 @@
       <c r="H310" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I310" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
         <v>861</v>
       </c>
@@ -9913,8 +10853,11 @@
       <c r="H311" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I311" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
         <v>860</v>
       </c>
@@ -9939,8 +10882,11 @@
       <c r="H312" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I312" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="8">
         <v>857</v>
       </c>
@@ -9965,8 +10911,11 @@
       <c r="H313" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I313" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
         <v>856</v>
       </c>
@@ -9991,8 +10940,11 @@
       <c r="H314" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I314" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="8">
         <v>591</v>
       </c>
@@ -10015,8 +10967,11 @@
       <c r="H315" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I315" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
         <v>407</v>
       </c>
@@ -10041,8 +10996,11 @@
       <c r="H316" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I316" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
         <v>895</v>
       </c>
@@ -10067,8 +11025,11 @@
       <c r="H317" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I317" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
         <v>326</v>
       </c>
@@ -10093,8 +11054,11 @@
       <c r="H318" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I318" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
         <v>548</v>
       </c>
@@ -10119,8 +11083,11 @@
       <c r="H319" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I319" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
         <v>549</v>
       </c>
@@ -10145,8 +11112,11 @@
       <c r="H320" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I320" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
         <v>544</v>
       </c>
@@ -10171,8 +11141,11 @@
       <c r="H321" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I321" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
         <v>508</v>
       </c>
@@ -10197,8 +11170,11 @@
       <c r="H322" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I322" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
         <v>859</v>
       </c>
@@ -10223,8 +11199,11 @@
       <c r="H323" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I323" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
         <v>668</v>
       </c>
@@ -10249,8 +11228,11 @@
       <c r="H324" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I324" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
         <v>809</v>
       </c>
@@ -10275,8 +11257,11 @@
       <c r="H325" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I325" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
         <v>784</v>
       </c>
@@ -10301,8 +11286,11 @@
       <c r="H326" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I326" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
         <v>810</v>
       </c>
@@ -10327,8 +11315,11 @@
       <c r="H327" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I327" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>689</v>
       </c>
@@ -10353,8 +11344,11 @@
       <c r="H328" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I328" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
         <v>442</v>
       </c>
@@ -10379,8 +11373,11 @@
       <c r="H329" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I329" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
         <v>610</v>
       </c>
@@ -10405,8 +11402,11 @@
       <c r="H330" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I330" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
         <v>631</v>
       </c>
@@ -10431,8 +11431,11 @@
       <c r="H331" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I331" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
         <v>867</v>
       </c>
@@ -10457,8 +11460,11 @@
       <c r="H332" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I332" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
         <v>340</v>
       </c>
@@ -10483,8 +11489,11 @@
       <c r="H333" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I333" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>690</v>
       </c>
@@ -10509,8 +11518,11 @@
       <c r="H334" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I334" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>854</v>
       </c>
@@ -10535,8 +11547,11 @@
       <c r="H335" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I335" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>480</v>
       </c>
@@ -10561,8 +11576,11 @@
       <c r="H336" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I336" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>705</v>
       </c>
@@ -10587,8 +11605,11 @@
       <c r="H337" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I337" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>341</v>
       </c>
@@ -10613,8 +11634,11 @@
       <c r="H338" s="8" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I338" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>691</v>
       </c>
@@ -10639,8 +11663,11 @@
       <c r="H339" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I339" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>363</v>
       </c>
@@ -10665,8 +11692,11 @@
       <c r="H340" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I340" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>262</v>
       </c>
@@ -10691,8 +11721,11 @@
       <c r="H341" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I341" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
         <v>640</v>
       </c>
@@ -10717,8 +11750,11 @@
       <c r="H342" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I342" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="13">
         <v>553</v>
       </c>
@@ -10741,8 +11777,11 @@
       <c r="H343" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I343" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="13">
         <v>679</v>
       </c>
@@ -10765,8 +11804,11 @@
       <c r="H344" s="8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I344" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="13">
         <v>736</v>
       </c>
@@ -10789,8 +11831,11 @@
       <c r="H345" s="8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I345" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
         <v>891</v>
       </c>
@@ -10813,8 +11858,11 @@
         <v>0</v>
       </c>
       <c r="H346" s="8"/>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I346" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>893</v>
       </c>
@@ -10837,8 +11885,11 @@
         <v>0</v>
       </c>
       <c r="H347" s="8"/>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I347" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>892</v>
       </c>
@@ -10861,8 +11912,11 @@
         <v>0</v>
       </c>
       <c r="H348" s="8"/>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I348" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
         <v>901</v>
       </c>
@@ -10885,8 +11939,11 @@
         <v>0</v>
       </c>
       <c r="H349" s="8"/>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I349" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>734</v>
       </c>
@@ -10909,8 +11966,11 @@
         <v>0</v>
       </c>
       <c r="H350" s="8"/>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I350" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>896</v>
       </c>
@@ -10933,8 +11993,11 @@
         <v>0</v>
       </c>
       <c r="H351" s="8"/>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I351" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>902</v>
       </c>
@@ -10957,8 +12020,11 @@
         <v>0</v>
       </c>
       <c r="H352" s="8"/>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I352" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
         <v>708</v>
       </c>
@@ -10981,6 +12047,9 @@
         <v>0</v>
       </c>
       <c r="H353" s="8"/>
+      <c r="I353" s="8" t="s">
+        <v>409</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
